--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-5郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-5郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776DF3CB-6728-47D3-97CB-ACA12D8D921B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA5141A-11EA-40E4-8724-B91FFB63F216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>智造组工程师工作月度情况</t>
   </si>
@@ -82,6 +82,67 @@
     <t>直通率看板完成
 -可按类型查询
 -可分别按年/月/周/日查询</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成待确认</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正完成页优化登陆状态丢失后的提示和跳转</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块增加 &gt;
+-模块内部菜单功能
+-模块基本信息录入功能
+-内箱装箱功能
+-外箱装箱功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备  点检和报修增加班组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块规则、内外箱功能-测试完成
+内箱分为纸盒装箱和纸箱装箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备维修屡屡汇总页增加批量录入功能，修改部分显示bug</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三楼插件温湿度采集器配置完成，新主机40021211#1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>直通率看板显示方式重做</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组号查看、修改、打印页面，增加只打印条码号功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、工序产能首页设备录入状态根据要求更改录入方式，增加瓶颈参考值参数
+2、工序产能首页汇总信息模块部分计算方式改变，模组部分全部分开
+3、外观电检增加开关，可以取消扫码完成后立刻自动打印功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增根据部门或人名查看权限页面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成仓库物料信息录入、物料看板、仓库入库功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、装箱基本信息录入页增加批次号自动增加功能
+2、增加只打印模组号的功能
+3、显示条码是否打印过编号和条码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,7 +685,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,16 +699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -672,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -738,7 +802,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -760,7 +824,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -786,158 +850,218 @@
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="6">
         <v>43962</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="D8" s="6">
+        <v>43962</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6">
+        <v>43962</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="6">
         <v>43963</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6"/>
+      <c r="D9" s="6">
+        <v>43966</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6">
+        <v>43966</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="6">
         <v>43964</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6">
+        <v>43964</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43964</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="6">
         <v>43965</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6">
+        <v>43969</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>43969</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="6">
         <v>43966</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6">
+        <v>43966</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>43966</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="6">
-        <v>43967</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>43966</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43966</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F13" s="6">
+        <v>43966</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="6">
-        <v>43968</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>43969</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43969</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43969</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="6">
         <v>43969</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6">
+        <v>43969</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>43969</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" s="6">
-        <v>43970</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>43972</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43978</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="6">
+        <v>43978</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="6">
-        <v>43971</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>43973</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43973</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F17" s="6">
+        <v>43973</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="8"/>
     </row>
@@ -945,31 +1069,43 @@
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="6">
-        <v>43972</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>43977</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43977</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
+        <v>43977</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="6">
-        <v>43973</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>43978</v>
+      </c>
+      <c r="D19" s="6">
+        <v>43979</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="F19" s="6">
+        <v>43979</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="8"/>
     </row>
